--- a/auswertung_disparity.xlsx
+++ b/auswertung_disparity.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\danie\Documents\Masterarbeit\Stereomatcher\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFAEB8A5-0402-448E-B6FB-D04D817C97EB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2C2DA2C-DCE3-404E-B1FD-EBDF3AB9F512}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12375" xr2:uid="{9F09BA9E-D75F-4560-BEC7-C3CEA781B600}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="62">
   <si>
     <t>OpenCV Blockmatch</t>
   </si>
@@ -135,6 +135,87 @@
   </si>
   <si>
     <t>0.067</t>
+  </si>
+  <si>
+    <t>Custom Pyramid Scale 8</t>
+  </si>
+  <si>
+    <t>350s</t>
+  </si>
+  <si>
+    <t>624s</t>
+  </si>
+  <si>
+    <t>0.042</t>
+  </si>
+  <si>
+    <t>995s</t>
+  </si>
+  <si>
+    <t>0.041</t>
+  </si>
+  <si>
+    <t>1474s</t>
+  </si>
+  <si>
+    <t>2041s</t>
+  </si>
+  <si>
+    <t>0.040</t>
+  </si>
+  <si>
+    <t>OpenCV Belief Propagation</t>
+  </si>
+  <si>
+    <t>16,4s</t>
+  </si>
+  <si>
+    <t>0.028</t>
+  </si>
+  <si>
+    <t>Custom Pyramid Scale 4</t>
+  </si>
+  <si>
+    <t>255s</t>
+  </si>
+  <si>
+    <t>0.039</t>
+  </si>
+  <si>
+    <t>446s</t>
+  </si>
+  <si>
+    <t>727s</t>
+  </si>
+  <si>
+    <t>1053s</t>
+  </si>
+  <si>
+    <t>1225s</t>
+  </si>
+  <si>
+    <t>0.39</t>
+  </si>
+  <si>
+    <t>Custom Pyramid Scale 2</t>
+  </si>
+  <si>
+    <t>135s</t>
+  </si>
+  <si>
+    <t>208s</t>
+  </si>
+  <si>
+    <t>314s</t>
+  </si>
+  <si>
+    <t>0.04</t>
+  </si>
+  <si>
+    <t>445s</t>
+  </si>
+  <si>
+    <t>601s</t>
   </si>
 </sst>
 </file>
@@ -488,10 +569,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4209DCCE-11B1-4B5F-B861-EBB3B8002F5E}">
-  <dimension ref="A1:T4"/>
+  <dimension ref="A1:T8"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="T5" sqref="T5"/>
+      <selection activeCell="T9" sqref="T9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -615,114 +696,302 @@
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>14</v>
+        <v>44</v>
       </c>
       <c r="B3" s="2">
-        <v>0.39500000000000002</v>
-      </c>
-      <c r="C3" s="2">
-        <v>0.35199999999999998</v>
-      </c>
-      <c r="D3" s="2">
-        <v>0.32800000000000001</v>
-      </c>
-      <c r="E3" s="2">
-        <v>0.313</v>
-      </c>
-      <c r="F3" s="2">
-        <v>0.30299999999999999</v>
+        <v>0.154</v>
       </c>
       <c r="H3" t="s">
-        <v>14</v>
+        <v>44</v>
       </c>
       <c r="I3" t="s">
-        <v>15</v>
-      </c>
-      <c r="J3" t="s">
-        <v>17</v>
-      </c>
-      <c r="K3" t="s">
-        <v>18</v>
-      </c>
-      <c r="L3" t="s">
-        <v>20</v>
-      </c>
-      <c r="M3" t="s">
-        <v>22</v>
+        <v>45</v>
       </c>
       <c r="O3" t="s">
-        <v>14</v>
+        <v>44</v>
       </c>
       <c r="P3" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>10</v>
-      </c>
-      <c r="R3" t="s">
-        <v>19</v>
-      </c>
-      <c r="S3" t="s">
-        <v>21</v>
-      </c>
-      <c r="T3" t="s">
-        <v>23</v>
+        <v>46</v>
       </c>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="2">
+        <v>0.39500000000000002</v>
+      </c>
+      <c r="C4" s="2">
+        <v>0.35199999999999998</v>
+      </c>
+      <c r="D4" s="2">
+        <v>0.32800000000000001</v>
+      </c>
+      <c r="E4" s="2">
+        <v>0.313</v>
+      </c>
+      <c r="F4" s="2">
+        <v>0.30299999999999999</v>
+      </c>
+      <c r="H4" t="s">
+        <v>14</v>
+      </c>
+      <c r="I4" t="s">
+        <v>15</v>
+      </c>
+      <c r="J4" t="s">
+        <v>17</v>
+      </c>
+      <c r="K4" t="s">
+        <v>18</v>
+      </c>
+      <c r="L4" t="s">
+        <v>20</v>
+      </c>
+      <c r="M4" t="s">
+        <v>22</v>
+      </c>
+      <c r="O4" t="s">
+        <v>14</v>
+      </c>
+      <c r="P4" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>10</v>
+      </c>
+      <c r="R4" t="s">
+        <v>19</v>
+      </c>
+      <c r="S4" t="s">
+        <v>21</v>
+      </c>
+      <c r="T4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B5" s="2">
         <v>0.47</v>
       </c>
-      <c r="C4" s="1">
+      <c r="C5" s="1">
         <v>0.51400000000000001</v>
       </c>
-      <c r="D4" s="2">
+      <c r="D5" s="2">
         <v>0.56699999999999995</v>
       </c>
-      <c r="E4" s="2">
+      <c r="E5" s="2">
         <v>0.60499999999999998</v>
       </c>
-      <c r="F4" s="2">
+      <c r="F5" s="2">
         <v>0.63800000000000001</v>
       </c>
-      <c r="H4" t="s">
+      <c r="H5" t="s">
         <v>24</v>
       </c>
-      <c r="I4" t="s">
+      <c r="I5" t="s">
         <v>25</v>
       </c>
-      <c r="J4" t="s">
+      <c r="J5" t="s">
         <v>27</v>
       </c>
-      <c r="K4" t="s">
+      <c r="K5" t="s">
         <v>29</v>
       </c>
-      <c r="L4" t="s">
+      <c r="L5" t="s">
         <v>31</v>
       </c>
-      <c r="M4" t="s">
+      <c r="M5" t="s">
         <v>33</v>
       </c>
-      <c r="O4" t="s">
+      <c r="O5" t="s">
         <v>24</v>
       </c>
-      <c r="P4" t="s">
+      <c r="P5" t="s">
         <v>26</v>
       </c>
-      <c r="Q4" t="s">
+      <c r="Q5" t="s">
         <v>28</v>
       </c>
-      <c r="R4" t="s">
+      <c r="R5" t="s">
         <v>30</v>
       </c>
-      <c r="S4" t="s">
+      <c r="S5" t="s">
         <v>32</v>
       </c>
-      <c r="T4" t="s">
+      <c r="T5" t="s">
         <v>34</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>35</v>
+      </c>
+      <c r="B6" s="2">
+        <v>0.33100000000000002</v>
+      </c>
+      <c r="C6" s="2">
+        <v>0.30399999999999999</v>
+      </c>
+      <c r="D6" s="2">
+        <v>0.29099999999999998</v>
+      </c>
+      <c r="E6" s="2">
+        <v>0.28299999999999997</v>
+      </c>
+      <c r="F6" s="2">
+        <v>0.27800000000000002</v>
+      </c>
+      <c r="H6" t="s">
+        <v>35</v>
+      </c>
+      <c r="I6" t="s">
+        <v>36</v>
+      </c>
+      <c r="J6" t="s">
+        <v>37</v>
+      </c>
+      <c r="K6" t="s">
+        <v>39</v>
+      </c>
+      <c r="L6" t="s">
+        <v>41</v>
+      </c>
+      <c r="M6" t="s">
+        <v>42</v>
+      </c>
+      <c r="O6" t="s">
+        <v>35</v>
+      </c>
+      <c r="P6" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>38</v>
+      </c>
+      <c r="R6" t="s">
+        <v>40</v>
+      </c>
+      <c r="S6" t="s">
+        <v>40</v>
+      </c>
+      <c r="T6" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>47</v>
+      </c>
+      <c r="B7" s="2">
+        <v>0.27500000000000002</v>
+      </c>
+      <c r="C7" s="2">
+        <v>0.25700000000000001</v>
+      </c>
+      <c r="D7" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="E7" s="2">
+        <v>0.245</v>
+      </c>
+      <c r="F7" s="2">
+        <v>0.24199999999999999</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>48</v>
+      </c>
+      <c r="J7" t="s">
+        <v>50</v>
+      </c>
+      <c r="K7" t="s">
+        <v>51</v>
+      </c>
+      <c r="L7" t="s">
+        <v>52</v>
+      </c>
+      <c r="M7" t="s">
+        <v>53</v>
+      </c>
+      <c r="O7" t="s">
+        <v>47</v>
+      </c>
+      <c r="P7" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>49</v>
+      </c>
+      <c r="R7" t="s">
+        <v>49</v>
+      </c>
+      <c r="S7" t="s">
+        <v>49</v>
+      </c>
+      <c r="T7" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>55</v>
+      </c>
+      <c r="B8" s="2">
+        <v>0.24099999999999999</v>
+      </c>
+      <c r="C8" s="2">
+        <v>0.22800000000000001</v>
+      </c>
+      <c r="D8" s="2">
+        <v>0.224</v>
+      </c>
+      <c r="E8" s="2">
+        <v>0.221</v>
+      </c>
+      <c r="F8" s="2">
+        <v>0.219</v>
+      </c>
+      <c r="H8" t="s">
+        <v>55</v>
+      </c>
+      <c r="I8" t="s">
+        <v>56</v>
+      </c>
+      <c r="J8" t="s">
+        <v>57</v>
+      </c>
+      <c r="K8" t="s">
+        <v>58</v>
+      </c>
+      <c r="L8" t="s">
+        <v>60</v>
+      </c>
+      <c r="M8" t="s">
+        <v>61</v>
+      </c>
+      <c r="O8" t="s">
+        <v>55</v>
+      </c>
+      <c r="P8" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>40</v>
+      </c>
+      <c r="R8" t="s">
+        <v>59</v>
+      </c>
+      <c r="S8" t="s">
+        <v>59</v>
+      </c>
+      <c r="T8" t="s">
+        <v>59</v>
       </c>
     </row>
   </sheetData>

--- a/auswertung_disparity.xlsx
+++ b/auswertung_disparity.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\danie\Documents\Masterarbeit\Stereomatcher\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2C2DA2C-DCE3-404E-B1FD-EBDF3AB9F512}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D5E0360-9AAA-4011-BAAA-C0231FC4EB1D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12375" xr2:uid="{9F09BA9E-D75F-4560-BEC7-C3CEA781B600}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="69">
   <si>
     <t>OpenCV Blockmatch</t>
   </si>
@@ -216,6 +216,27 @@
   </si>
   <si>
     <t>601s</t>
+  </si>
+  <si>
+    <t>Custom Diff</t>
+  </si>
+  <si>
+    <t>1147s</t>
+  </si>
+  <si>
+    <t>2343s</t>
+  </si>
+  <si>
+    <t>3678s</t>
+  </si>
+  <si>
+    <t>4955s</t>
+  </si>
+  <si>
+    <t>6821s</t>
+  </si>
+  <si>
+    <t>0.057</t>
   </si>
 </sst>
 </file>
@@ -569,10 +590,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4209DCCE-11B1-4B5F-B861-EBB3B8002F5E}">
-  <dimension ref="A1:T8"/>
+  <dimension ref="A1:T9"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="T9" sqref="T9"/>
+      <selection activeCell="T10" sqref="T10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -994,6 +1015,62 @@
         <v>59</v>
       </c>
     </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>62</v>
+      </c>
+      <c r="B9" s="2">
+        <v>0.49299999999999999</v>
+      </c>
+      <c r="C9" s="2">
+        <v>0.45200000000000001</v>
+      </c>
+      <c r="D9" s="2">
+        <v>0.434</v>
+      </c>
+      <c r="E9" s="1">
+        <v>0.43</v>
+      </c>
+      <c r="F9" s="2">
+        <v>0.438</v>
+      </c>
+      <c r="H9" t="s">
+        <v>62</v>
+      </c>
+      <c r="I9" t="s">
+        <v>63</v>
+      </c>
+      <c r="J9" t="s">
+        <v>64</v>
+      </c>
+      <c r="K9" t="s">
+        <v>65</v>
+      </c>
+      <c r="L9" t="s">
+        <v>66</v>
+      </c>
+      <c r="M9" t="s">
+        <v>67</v>
+      </c>
+      <c r="O9" t="s">
+        <v>62</v>
+      </c>
+      <c r="P9" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>26</v>
+      </c>
+      <c r="R9" t="s">
+        <v>26</v>
+      </c>
+      <c r="S9" t="s">
+        <v>26</v>
+      </c>
+      <c r="T9" t="s">
+        <v>68</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>

--- a/auswertung_disparity.xlsx
+++ b/auswertung_disparity.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\danie\Documents\Masterarbeit\Stereomatcher\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D5E0360-9AAA-4011-BAAA-C0231FC4EB1D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBFCD705-29E4-4737-A37C-41B0BE729722}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12375" xr2:uid="{9F09BA9E-D75F-4560-BEC7-C3CEA781B600}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="83">
   <si>
     <t>OpenCV Blockmatch</t>
   </si>
@@ -74,69 +74,18 @@
     <t>0.063</t>
   </si>
   <si>
-    <t>Custom Blockmatch</t>
-  </si>
-  <si>
-    <t>2439s</t>
-  </si>
-  <si>
-    <t>0.051</t>
-  </si>
-  <si>
-    <t>4532s</t>
-  </si>
-  <si>
-    <t>8648,3s</t>
-  </si>
-  <si>
-    <t>0.047</t>
-  </si>
-  <si>
-    <t>14096s</t>
-  </si>
-  <si>
-    <t>0.455</t>
-  </si>
-  <si>
-    <t>20211s</t>
-  </si>
-  <si>
-    <t>0.0447</t>
-  </si>
-  <si>
-    <t>Custom Blockmatch  Color</t>
-  </si>
-  <si>
-    <t>4762s</t>
-  </si>
-  <si>
     <t>0.056</t>
   </si>
   <si>
-    <t>10169s</t>
-  </si>
-  <si>
     <t>0.06</t>
   </si>
   <si>
-    <t>16231s</t>
-  </si>
-  <si>
     <t>0.064</t>
   </si>
   <si>
-    <t>25383s</t>
-  </si>
-  <si>
     <t>0.066</t>
   </si>
   <si>
-    <t>34901s</t>
-  </si>
-  <si>
-    <t>0.067</t>
-  </si>
-  <si>
     <t>Custom Pyramid Scale 8</t>
   </si>
   <si>
@@ -237,6 +186,99 @@
   </si>
   <si>
     <t>0.057</t>
+  </si>
+  <si>
+    <t>Custom Blockmatch 0.15</t>
+  </si>
+  <si>
+    <t>2492s</t>
+  </si>
+  <si>
+    <t>0.05</t>
+  </si>
+  <si>
+    <t>4686s</t>
+  </si>
+  <si>
+    <t>0.053</t>
+  </si>
+  <si>
+    <t>7623s</t>
+  </si>
+  <si>
+    <t>11361s</t>
+  </si>
+  <si>
+    <t>0.061</t>
+  </si>
+  <si>
+    <t>15767s</t>
+  </si>
+  <si>
+    <t>Custom Blockmatch 0.05</t>
+  </si>
+  <si>
+    <t>6396s</t>
+  </si>
+  <si>
+    <t>0.052</t>
+  </si>
+  <si>
+    <t>9003s</t>
+  </si>
+  <si>
+    <t>13530s</t>
+  </si>
+  <si>
+    <t>3337s</t>
+  </si>
+  <si>
+    <t>17751s</t>
+  </si>
+  <si>
+    <t>Custom Blockmatch 0.5</t>
+  </si>
+  <si>
+    <t>2593s</t>
+  </si>
+  <si>
+    <t>5095s</t>
+  </si>
+  <si>
+    <t>7716s</t>
+  </si>
+  <si>
+    <t>0.062</t>
+  </si>
+  <si>
+    <t>12673s</t>
+  </si>
+  <si>
+    <t>16499s</t>
+  </si>
+  <si>
+    <t>Custom Blockmatch  Color 0.15</t>
+  </si>
+  <si>
+    <t>5299s</t>
+  </si>
+  <si>
+    <t>10455s</t>
+  </si>
+  <si>
+    <t>0.060</t>
+  </si>
+  <si>
+    <t>20748s</t>
+  </si>
+  <si>
+    <t>27749s</t>
+  </si>
+  <si>
+    <t>35817s</t>
+  </si>
+  <si>
+    <t>0.068</t>
   </si>
 </sst>
 </file>
@@ -590,17 +632,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4209DCCE-11B1-4B5F-B861-EBB3B8002F5E}">
-  <dimension ref="A1:T9"/>
+  <dimension ref="A1:T11"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="T10" sqref="T10"/>
+      <selection activeCell="Q19" sqref="Q19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.5703125" customWidth="1"/>
-    <col min="8" max="8" width="24.140625" customWidth="1"/>
-    <col min="15" max="15" width="25.140625" customWidth="1"/>
+    <col min="1" max="1" width="29.5703125" customWidth="1"/>
+    <col min="8" max="8" width="29" customWidth="1"/>
+    <col min="15" max="15" width="29.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
@@ -717,358 +759,470 @@
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="B3" s="2">
         <v>0.154</v>
       </c>
       <c r="H3" t="s">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="I3" t="s">
-        <v>45</v>
+        <v>28</v>
       </c>
       <c r="O3" t="s">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="P3" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>14</v>
+        <v>52</v>
       </c>
       <c r="B4" s="2">
-        <v>0.39500000000000002</v>
+        <v>0.38500000000000001</v>
       </c>
       <c r="C4" s="2">
-        <v>0.35199999999999998</v>
+        <v>0.39700000000000002</v>
       </c>
       <c r="D4" s="2">
-        <v>0.32800000000000001</v>
+        <v>0.443</v>
       </c>
       <c r="E4" s="2">
-        <v>0.313</v>
+        <v>0.49399999999999999</v>
       </c>
       <c r="F4" s="2">
-        <v>0.30299999999999999</v>
+        <v>0.53500000000000003</v>
       </c>
       <c r="H4" t="s">
-        <v>14</v>
+        <v>52</v>
       </c>
       <c r="I4" t="s">
-        <v>15</v>
+        <v>53</v>
       </c>
       <c r="J4" t="s">
-        <v>17</v>
+        <v>55</v>
       </c>
       <c r="K4" t="s">
-        <v>18</v>
+        <v>57</v>
       </c>
       <c r="L4" t="s">
-        <v>20</v>
+        <v>58</v>
       </c>
       <c r="M4" t="s">
-        <v>22</v>
+        <v>60</v>
       </c>
       <c r="O4" t="s">
-        <v>14</v>
+        <v>52</v>
       </c>
       <c r="P4" t="s">
-        <v>16</v>
+        <v>54</v>
       </c>
       <c r="Q4" t="s">
-        <v>10</v>
+        <v>56</v>
       </c>
       <c r="R4" t="s">
-        <v>19</v>
+        <v>51</v>
       </c>
       <c r="S4" t="s">
-        <v>21</v>
+        <v>59</v>
       </c>
       <c r="T4" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>24</v>
+        <v>61</v>
       </c>
       <c r="B5" s="2">
-        <v>0.47</v>
-      </c>
-      <c r="C5" s="1">
-        <v>0.51400000000000001</v>
+        <v>0.378</v>
+      </c>
+      <c r="C5" s="2">
+        <v>0.38400000000000001</v>
       </c>
       <c r="D5" s="2">
-        <v>0.56699999999999995</v>
+        <v>0.433</v>
       </c>
       <c r="E5" s="2">
-        <v>0.60499999999999998</v>
+        <v>0.48599999999999999</v>
       </c>
       <c r="F5" s="2">
-        <v>0.63800000000000001</v>
+        <v>0.52900000000000003</v>
       </c>
       <c r="H5" t="s">
-        <v>24</v>
+        <v>61</v>
       </c>
       <c r="I5" t="s">
-        <v>25</v>
+        <v>66</v>
       </c>
       <c r="J5" t="s">
-        <v>27</v>
+        <v>62</v>
       </c>
       <c r="K5" t="s">
-        <v>29</v>
+        <v>64</v>
       </c>
       <c r="L5" t="s">
-        <v>31</v>
+        <v>65</v>
       </c>
       <c r="M5" t="s">
-        <v>33</v>
+        <v>67</v>
       </c>
       <c r="O5" t="s">
-        <v>24</v>
+        <v>61</v>
       </c>
       <c r="P5" t="s">
-        <v>26</v>
+        <v>54</v>
       </c>
       <c r="Q5" t="s">
-        <v>28</v>
+        <v>63</v>
       </c>
       <c r="R5" t="s">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="S5" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="T5" t="s">
-        <v>34</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>35</v>
+        <v>68</v>
       </c>
       <c r="B6" s="2">
-        <v>0.33100000000000002</v>
+        <v>0.433</v>
       </c>
       <c r="C6" s="2">
-        <v>0.30399999999999999</v>
+        <v>0.496</v>
       </c>
       <c r="D6" s="2">
-        <v>0.29099999999999998</v>
+        <v>0.53200000000000003</v>
       </c>
       <c r="E6" s="2">
-        <v>0.28299999999999997</v>
+        <v>0.56299999999999994</v>
       </c>
       <c r="F6" s="2">
-        <v>0.27800000000000002</v>
+        <v>0.59099999999999997</v>
       </c>
       <c r="H6" t="s">
-        <v>35</v>
+        <v>68</v>
       </c>
       <c r="I6" t="s">
-        <v>36</v>
+        <v>69</v>
       </c>
       <c r="J6" t="s">
-        <v>37</v>
+        <v>70</v>
       </c>
       <c r="K6" t="s">
-        <v>39</v>
+        <v>71</v>
       </c>
       <c r="L6" t="s">
-        <v>41</v>
+        <v>73</v>
       </c>
       <c r="M6" t="s">
-        <v>42</v>
+        <v>74</v>
       </c>
       <c r="O6" t="s">
-        <v>35</v>
+        <v>68</v>
       </c>
       <c r="P6" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="Q6" t="s">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="R6" t="s">
-        <v>40</v>
+        <v>72</v>
       </c>
       <c r="S6" t="s">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="T6" t="s">
-        <v>43</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>47</v>
+        <v>75</v>
       </c>
       <c r="B7" s="2">
-        <v>0.27500000000000002</v>
+        <v>0.44</v>
       </c>
       <c r="C7" s="2">
-        <v>0.25700000000000001</v>
-      </c>
-      <c r="D7" s="1">
-        <v>0.25</v>
+        <v>0.50600000000000001</v>
+      </c>
+      <c r="D7" s="2">
+        <v>0.56499999999999995</v>
       </c>
       <c r="E7" s="2">
-        <v>0.245</v>
+        <v>0.60599999999999998</v>
       </c>
       <c r="F7" s="2">
-        <v>0.24199999999999999</v>
+        <v>0.63900000000000001</v>
       </c>
       <c r="H7" t="s">
-        <v>47</v>
+        <v>75</v>
       </c>
       <c r="I7" t="s">
-        <v>48</v>
+        <v>76</v>
       </c>
       <c r="J7" t="s">
-        <v>50</v>
+        <v>77</v>
       </c>
       <c r="K7" t="s">
-        <v>51</v>
+        <v>79</v>
       </c>
       <c r="L7" t="s">
-        <v>52</v>
+        <v>80</v>
       </c>
       <c r="M7" t="s">
-        <v>53</v>
+        <v>81</v>
       </c>
       <c r="O7" t="s">
-        <v>47</v>
+        <v>75</v>
       </c>
       <c r="P7" t="s">
-        <v>43</v>
+        <v>11</v>
       </c>
       <c r="Q7" t="s">
-        <v>49</v>
+        <v>78</v>
       </c>
       <c r="R7" t="s">
-        <v>49</v>
+        <v>16</v>
       </c>
       <c r="S7" t="s">
-        <v>49</v>
+        <v>17</v>
       </c>
       <c r="T7" t="s">
-        <v>54</v>
+        <v>82</v>
       </c>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>55</v>
+        <v>18</v>
       </c>
       <c r="B8" s="2">
-        <v>0.24099999999999999</v>
+        <v>0.33100000000000002</v>
       </c>
       <c r="C8" s="2">
-        <v>0.22800000000000001</v>
+        <v>0.30399999999999999</v>
       </c>
       <c r="D8" s="2">
-        <v>0.224</v>
+        <v>0.29099999999999998</v>
       </c>
       <c r="E8" s="2">
-        <v>0.221</v>
+        <v>0.28299999999999997</v>
       </c>
       <c r="F8" s="2">
-        <v>0.219</v>
+        <v>0.27800000000000002</v>
       </c>
       <c r="H8" t="s">
-        <v>55</v>
+        <v>18</v>
       </c>
       <c r="I8" t="s">
-        <v>56</v>
+        <v>19</v>
       </c>
       <c r="J8" t="s">
-        <v>57</v>
+        <v>20</v>
       </c>
       <c r="K8" t="s">
-        <v>58</v>
+        <v>22</v>
       </c>
       <c r="L8" t="s">
-        <v>60</v>
+        <v>24</v>
       </c>
       <c r="M8" t="s">
-        <v>61</v>
+        <v>25</v>
       </c>
       <c r="O8" t="s">
-        <v>55</v>
+        <v>18</v>
       </c>
       <c r="P8" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="Q8" t="s">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="R8" t="s">
-        <v>59</v>
+        <v>23</v>
       </c>
       <c r="S8" t="s">
-        <v>59</v>
+        <v>23</v>
       </c>
       <c r="T8" t="s">
-        <v>59</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>62</v>
+        <v>30</v>
       </c>
       <c r="B9" s="2">
-        <v>0.49299999999999999</v>
+        <v>0.27500000000000002</v>
       </c>
       <c r="C9" s="2">
-        <v>0.45200000000000001</v>
-      </c>
-      <c r="D9" s="2">
-        <v>0.434</v>
-      </c>
-      <c r="E9" s="1">
-        <v>0.43</v>
+        <v>0.25700000000000001</v>
+      </c>
+      <c r="D9" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="E9" s="2">
+        <v>0.245</v>
       </c>
       <c r="F9" s="2">
-        <v>0.438</v>
+        <v>0.24199999999999999</v>
       </c>
       <c r="H9" t="s">
-        <v>62</v>
+        <v>30</v>
       </c>
       <c r="I9" t="s">
-        <v>63</v>
+        <v>31</v>
       </c>
       <c r="J9" t="s">
-        <v>64</v>
+        <v>33</v>
       </c>
       <c r="K9" t="s">
-        <v>65</v>
+        <v>34</v>
       </c>
       <c r="L9" t="s">
-        <v>66</v>
+        <v>35</v>
       </c>
       <c r="M9" t="s">
-        <v>67</v>
+        <v>36</v>
       </c>
       <c r="O9" t="s">
-        <v>62</v>
+        <v>30</v>
       </c>
       <c r="P9" t="s">
         <v>26</v>
       </c>
       <c r="Q9" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="R9" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="S9" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="T9" t="s">
-        <v>68</v>
+        <v>37</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>38</v>
+      </c>
+      <c r="B10" s="2">
+        <v>0.24099999999999999</v>
+      </c>
+      <c r="C10" s="2">
+        <v>0.22800000000000001</v>
+      </c>
+      <c r="D10" s="2">
+        <v>0.224</v>
+      </c>
+      <c r="E10" s="2">
+        <v>0.221</v>
+      </c>
+      <c r="F10" s="2">
+        <v>0.219</v>
+      </c>
+      <c r="H10" t="s">
+        <v>38</v>
+      </c>
+      <c r="I10" t="s">
+        <v>39</v>
+      </c>
+      <c r="J10" t="s">
+        <v>40</v>
+      </c>
+      <c r="K10" t="s">
+        <v>41</v>
+      </c>
+      <c r="L10" t="s">
+        <v>43</v>
+      </c>
+      <c r="M10" t="s">
+        <v>44</v>
+      </c>
+      <c r="O10" t="s">
+        <v>38</v>
+      </c>
+      <c r="P10" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>23</v>
+      </c>
+      <c r="R10" t="s">
+        <v>42</v>
+      </c>
+      <c r="S10" t="s">
+        <v>42</v>
+      </c>
+      <c r="T10" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>45</v>
+      </c>
+      <c r="B11" s="2">
+        <v>0.49299999999999999</v>
+      </c>
+      <c r="C11" s="2">
+        <v>0.45200000000000001</v>
+      </c>
+      <c r="D11" s="2">
+        <v>0.434</v>
+      </c>
+      <c r="E11" s="1">
+        <v>0.43</v>
+      </c>
+      <c r="F11" s="2">
+        <v>0.438</v>
+      </c>
+      <c r="H11" t="s">
+        <v>45</v>
+      </c>
+      <c r="I11" t="s">
+        <v>46</v>
+      </c>
+      <c r="J11" t="s">
+        <v>47</v>
+      </c>
+      <c r="K11" t="s">
+        <v>48</v>
+      </c>
+      <c r="L11" t="s">
+        <v>49</v>
+      </c>
+      <c r="M11" t="s">
+        <v>50</v>
+      </c>
+      <c r="O11" t="s">
+        <v>45</v>
+      </c>
+      <c r="P11" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>14</v>
+      </c>
+      <c r="R11" t="s">
+        <v>14</v>
+      </c>
+      <c r="S11" t="s">
+        <v>14</v>
+      </c>
+      <c r="T11" t="s">
+        <v>51</v>
       </c>
     </row>
   </sheetData>

--- a/auswertung_disparity.xlsx
+++ b/auswertung_disparity.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21001"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\danie\Documents\Masterarbeit\Stereomatcher\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBFCD705-29E4-4737-A37C-41B0BE729722}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB79C135-FCBB-4D40-B586-A36F629162D4}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12375" xr2:uid="{9F09BA9E-D75F-4560-BEC7-C3CEA781B600}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="89">
   <si>
     <t>OpenCV Blockmatch</t>
   </si>
@@ -279,6 +279,24 @@
   </si>
   <si>
     <t>0.068</t>
+  </si>
+  <si>
+    <t>Multibox 0.15</t>
+  </si>
+  <si>
+    <t>3265s</t>
+  </si>
+  <si>
+    <t>7290s</t>
+  </si>
+  <si>
+    <t>0.050</t>
+  </si>
+  <si>
+    <t>20160s</t>
+  </si>
+  <si>
+    <t>41729s</t>
   </si>
 </sst>
 </file>
@@ -632,10 +650,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4209DCCE-11B1-4B5F-B861-EBB3B8002F5E}">
-  <dimension ref="A1:T11"/>
+  <dimension ref="A1:T15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="Q19" sqref="Q19"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="R21" sqref="R21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1225,6 +1243,85 @@
         <v>51</v>
       </c>
     </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B14">
+        <v>3</v>
+      </c>
+      <c r="C14">
+        <v>5</v>
+      </c>
+      <c r="D14">
+        <v>9</v>
+      </c>
+      <c r="E14">
+        <v>13</v>
+      </c>
+      <c r="I14">
+        <v>3</v>
+      </c>
+      <c r="J14">
+        <v>5</v>
+      </c>
+      <c r="K14">
+        <v>9</v>
+      </c>
+      <c r="L14">
+        <v>13</v>
+      </c>
+      <c r="P14">
+        <v>3</v>
+      </c>
+      <c r="Q14">
+        <v>5</v>
+      </c>
+      <c r="R14">
+        <v>9</v>
+      </c>
+      <c r="S14">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>83</v>
+      </c>
+      <c r="B15" s="2">
+        <v>0.433</v>
+      </c>
+      <c r="C15" s="2">
+        <v>0.376</v>
+      </c>
+      <c r="D15" s="2">
+        <v>0.39600000000000002</v>
+      </c>
+      <c r="E15" s="2">
+        <v>0.48199999999999998</v>
+      </c>
+      <c r="I15" t="s">
+        <v>84</v>
+      </c>
+      <c r="J15" t="s">
+        <v>85</v>
+      </c>
+      <c r="K15" t="s">
+        <v>87</v>
+      </c>
+      <c r="L15" t="s">
+        <v>88</v>
+      </c>
+      <c r="P15" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>86</v>
+      </c>
+      <c r="R15" t="s">
+        <v>56</v>
+      </c>
+      <c r="S15" t="s">
+        <v>78</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
